--- a/data-raw/sharma.met.xlsx
+++ b/data-raw/sharma.met.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D077186-BD62-479A-82A3-CA0CBC4E189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18060" windowHeight="8550"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,14 +151,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -262,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,22 +444,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="4.26953125" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -484,7 +493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -501,7 +510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -518,7 +527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -535,7 +544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -552,7 +561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -569,7 +578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -586,7 +595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -603,7 +612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -620,7 +629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -637,7 +646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -654,7 +663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -671,7 +680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -688,7 +697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -705,7 +714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -722,7 +731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -739,7 +748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -756,7 +765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -773,7 +782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -790,7 +799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -807,7 +816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -824,7 +833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -841,7 +850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -858,7 +867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -875,7 +884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -892,7 +901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -909,7 +918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -926,7 +935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -943,7 +952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -960,7 +969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -977,7 +986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1317,7 +1326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +1377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -1742,7 +1751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -1759,7 +1768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -1776,7 +1785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1802,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -1861,7 +1870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -1997,7 +2006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -2031,7 +2040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -2099,7 +2108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -2286,7 +2295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -2320,7 +2329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -2405,7 +2414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -2507,7 +2516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -2524,7 +2533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2615,29 +2624,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="4.26953125" customWidth="1"/>
     <col min="5" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="3" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
         <v>7</v>
       </c>
@@ -2648,7 +2657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>5</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2815,7 +2824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2951,7 +2960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3155,7 +3164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +3181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3240,7 +3249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3274,7 +3283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3308,7 +3317,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3325,7 +3334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3359,7 +3368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3376,7 +3385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3421,7 +3430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -3435,7 +3444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -3449,7 +3458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3477,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -3491,7 +3500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -3505,7 +3514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3547,7 +3556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -3561,7 +3570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -3589,7 +3598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3617,7 +3626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3631,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -3659,7 +3668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3693,24 +3702,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
